--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/法人资本金.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/法人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,371 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>21.14248</v>
-      </c>
-      <c r="C2" t="n">
-        <v>184.44867</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.918089999999999</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>12.63419</v>
-      </c>
-      <c r="G2" t="n">
-        <v>80.70273</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21.39084</v>
-      </c>
-      <c r="I2" t="n">
-        <v>34.22885</v>
-      </c>
-      <c r="J2" t="n">
-        <v>18.30854</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48.24708</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1410.49359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.42493</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.819089999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>70.03093</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27.17224</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.34048</v>
-      </c>
-      <c r="R2" t="n">
-        <v>29.38268</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15.74885</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>11.37497</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.06222</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.95851</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.05711</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>166.12961</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>168.56277</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>96.37435000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>20.6472</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.496460000000001</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>57.55027</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.77985</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>29.27451</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>45.44216</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>72.28659</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.15947</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>26.05375</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>24.14046</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41.01592</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>48.11344</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0733</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25.13361</v>
-      </c>
-      <c r="C3" t="n">
-        <v>199.59139</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.445679999999999</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>12.99317</v>
-      </c>
-      <c r="G3" t="n">
-        <v>80.26891000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.57301</v>
-      </c>
-      <c r="I3" t="n">
-        <v>39.8398</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25.44213</v>
-      </c>
-      <c r="K3" t="n">
-        <v>52.95681</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1560.23205</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.289720000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.98217</v>
-      </c>
-      <c r="O3" t="n">
-        <v>76.61932</v>
-      </c>
-      <c r="P3" t="n">
-        <v>23.30012</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.34958</v>
-      </c>
-      <c r="R3" t="n">
-        <v>26.3012</v>
-      </c>
-      <c r="S3" t="n">
-        <v>14.39049</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>14.61579</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.02066</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.73778</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.26205</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>217.81798</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>184.27388</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>98.02049</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16.16449</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.32182</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>61.27343</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.60031</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>28.6145</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>64.42889</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>83.53122999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.60242</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29.18824</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29.23551</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>46.84192</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>48.12073</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.08282</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>26.43073</v>
-      </c>
-      <c r="C4" t="n">
-        <v>186.09608</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.87357</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>13.28428</v>
-      </c>
-      <c r="G4" t="n">
-        <v>92.21805999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>24.58128</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47.39297</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28.48087</v>
-      </c>
-      <c r="K4" t="n">
-        <v>67.66739</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1765.55795</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11.00108</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.51205</v>
-      </c>
-      <c r="O4" t="n">
-        <v>87.8137</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24.84456</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.46711</v>
-      </c>
-      <c r="R4" t="n">
-        <v>36.64387</v>
-      </c>
-      <c r="S4" t="n">
-        <v>16.96721</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>17.52381</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.14737</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.30513</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.62712</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>205.58322</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>239.20097</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>97.67994</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19.66275</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>50.071</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13.53042</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>69.34441</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.701000000000001</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>35.27877</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>55.14923</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>93.24668</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.64405</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>31.83819</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>33.60813</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>47.48605</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>48.5239</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.131</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
